--- a/corona-server-side-asp.net/Excels/Sections/מבט על/מאומתים אתמול.xlsx
+++ b/corona-server-side-asp.net/Excels/Sections/מבט על/מאומתים אתמול.xlsx
@@ -33,7 +33,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>average</t>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -77,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -88,6 +88,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,7 +372,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B1" sqref="B1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,16 +381,16 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>14</v>
       </c>
     </row>
@@ -397,7 +398,7 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="G3" s="2"/>
@@ -407,7 +408,7 @@
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>4860823</v>
       </c>
     </row>
